--- a/src/main/resources/tpl_math_game.xlsx
+++ b/src/main/resources/tpl_math_game.xlsx
@@ -158,7 +158,7 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="40.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="38.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.3"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
@@ -230,7 +230,7 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.39375" right="0.39375" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
